--- a/biology/Botanique/Jardin_botanique_de_Sóller/Jardin_botanique_de_Sóller.xlsx
+++ b/biology/Botanique/Jardin_botanique_de_Sóller/Jardin_botanique_de_Sóller.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_S%C3%B3ller</t>
+          <t>Jardin_botanique_de_Sóller</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin botanique de Sóller ou musée des Sciences Naturelles des Baléares à Sóller est consacré à l'étude et à la conservation de la nature dans les îles Baléares, ainsi qu'à la diffusion des  informations afférentes à ces sujets.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_S%C3%B3ller</t>
+          <t>Jardin_botanique_de_Sóller</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Préparé en 1980, le jardin botanique de Sóller s'ouvre au public le 9 mai 1992[1], pour être officialisé en avril 1997[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Préparé en 1980, le jardin botanique de Sóller s'ouvre au public le 9 mai 1992, pour être officialisé en avril 1997.
 Il se compose d'un palais de petite dimension, construit en 1900, « el Camp d'en Prohom » et d'un jardin, attenant à cette propriété.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_S%C3%B3ller</t>
+          <t>Jardin_botanique_de_Sóller</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -552,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_S%C3%B3ller</t>
+          <t>Jardin_botanique_de_Sóller</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,6 +587,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -578,7 +596,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_S%C3%B3ller</t>
+          <t>Jardin_botanique_de_Sóller</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -596,7 +614,9 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les études concernent :
 la biodiversité et la conservation de la nature
